--- a/Unity Project/Assets/Resources/Data/Key/KeySettingData.xlsx
+++ b/Unity Project/Assets/Resources/Data/Key/KeySettingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\RRD\Unity Project\Assets\Resources\Data\Key\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCCFE04-EBCC-4267-9C05-B87B5CF52AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCBFDBD-67D3-4044-A52D-BEC2A217EF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1695" windowWidth="14550" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Default" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,10 @@
   </si>
   <si>
     <t>Setting_UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interact</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -615,6 +619,14 @@
         <v>21</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity Project/Assets/Resources/Data/Key/KeySettingData.xlsx
+++ b/Unity Project/Assets/Resources/Data/Key/KeySettingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\RRD\Unity Project\Assets\Resources\Data\Key\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCCFE04-EBCC-4267-9C05-B87B5CF52AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4808B274-9639-4CB9-962A-CA3D883A2FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1695" windowWidth="14550" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7905" yWindow="3195" windowWidth="14550" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Default" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,30 +91,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>F1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,6 +116,34 @@
   </si>
   <si>
     <t>Setting_UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_NormalAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_EhanceAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Ultimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Auxiliary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mouse1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftControl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,14 +500,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -545,42 +554,42 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -588,12 +597,12 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -601,18 +610,26 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
